--- a/PSSE_sim/base_model/ref/PQ curve ref/PQ cuve SMA/PQ Curves_SCS-3600-UP-XT_1159-1490Vdc-DV.xlsx
+++ b/PSSE_sim/base_model/ref/PQ curve ref/PQ cuve SMA/PQ Curves_SCS-3600-UP-XT_1159-1490Vdc-DV.xlsx
@@ -74371,8 +74371,8 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B3416DCB34DD7C4B92E65D12CB7FCD38" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="65b0a746a148edb6cd10986272315b1f">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="79cd7128-7692-472f-9aff-5e5a6b9f80d3" xmlns:ns3="4c813fe8-1347-4959-8219-8a1b0e95da11" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="58eb3e04bae002f6adef8007524b2a24" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B3416DCB34DD7C4B92E65D12CB7FCD38" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="bac8be2826a85e5a9dd452e9d6c31841">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="79cd7128-7692-472f-9aff-5e5a6b9f80d3" xmlns:ns3="4c813fe8-1347-4959-8219-8a1b0e95da11" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bef6fd18dd0aaa5b9dabdafd5fa7b70b" ns2:_="" ns3:_="">
     <xsd:import namespace="79cd7128-7692-472f-9aff-5e5a6b9f80d3"/>
     <xsd:import namespace="4c813fe8-1347-4959-8219-8a1b0e95da11"/>
     <xsd:element name="properties">
@@ -74389,12 +74389,13 @@
                 <xsd:element ref="ns3:MediaServiceObjectDetectorVersions" minOccurs="0"/>
                 <xsd:element ref="ns3:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
                 <xsd:element ref="ns2:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
                 <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
                 <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
                 <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaLengthInSeconds" minOccurs="0"/>
                 <xsd:element ref="ns3:MediaServiceLocation" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceSearchProperties" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -74436,7 +74437,7 @@
         </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="TaxCatchAll" ma:index="16" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{6d933788-18c3-4fb6-81e3-30797d1d2137}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="79cd7128-7692-472f-9aff-5e5a6b9f80d3">
+    <xsd:element name="TaxCatchAll" ma:index="16" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{6ec4a4bc-2685-4191-8e5b-741c43db70a3}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="79cd7128-7692-472f-9aff-5e5a6b9f80d3">
       <xsd:complexType>
         <xsd:complexContent>
           <xsd:extension base="dms:MultiChoiceLookup">
@@ -74473,36 +74474,41 @@
         </xsd:sequence>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="17" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+    <xsd:element name="MediaServiceGenerationTime" ma:index="17" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="18" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="19" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
         </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="18" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+    <xsd:element name="MediaServiceDateTaken" ma:index="20" nillable="true" ma:displayName="MediaServiceDateTaken" ma:description="" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="19" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+    <xsd:element name="MediaLengthInSeconds" ma:index="21" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="22" nillable="true" ma:displayName="Location" ma:description="" ma:indexed="true" ma:internalName="MediaServiceLocation" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="20" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+    <xsd:element name="MediaServiceSearchProperties" ma:index="23" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
       <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceLocation" ma:index="21" nillable="true" ma:displayName="Location" ma:indexed="true" ma:internalName="MediaServiceLocation" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="22" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
+        <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -74626,22 +74632,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DA11E384-704A-4612-9333-97C8A095DD20}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="79cd7128-7692-472f-9aff-5e5a6b9f80d3"/>
-    <ds:schemaRef ds:uri="4c813fe8-1347-4959-8219-8a1b0e95da11"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BDC43C51-DD9C-4386-A6F4-DAE2B0504903}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
